--- a/data/Emissoes_CO2_Lisboa.xlsx
+++ b/data/Emissoes_CO2_Lisboa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC4C31-FC99-48B2-965F-6D4E12E2323F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{517C38B3-CE1C-46AE-895D-F53F62E307FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3B15593-21DF-4EF4-95BA-6E13FFBB7A2D}"/>
   </bookViews>
@@ -84,7 +84,7 @@
     <t>Emissões de CO2 geradas na cidade de Lisboa, por sector e forma de energia.</t>
   </si>
   <si>
-    <t>ton/tep</t>
+    <t>ton</t>
   </si>
 </sst>
 </file>
@@ -547,7 +547,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,17 +1859,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A35"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A45"/>
+    <mergeCell ref="A46:A50"/>
     <mergeCell ref="A21:A25"/>
     <mergeCell ref="B1:G1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="A6:A10"/>
     <mergeCell ref="A11:A15"/>
     <mergeCell ref="A16:A20"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A35"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A45"/>
-    <mergeCell ref="A46:A50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/data/Emissoes_CO2_Lisboa.xlsx
+++ b/data/Emissoes_CO2_Lisboa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vasco Abreu - PC\Documents\Python Projects\Matriz_Energia\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341602E5-9175-4859-86EE-7047F5834D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A055BE-0DD8-48A8-952E-7D00B5C16804}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5445" yWindow="5445" windowWidth="21600" windowHeight="11325" xr2:uid="{B3B15593-21DF-4EF4-95BA-6E13FFBB7A2D}"/>
+    <workbookView xWindow="12165" yWindow="795" windowWidth="21600" windowHeight="11325" xr2:uid="{B3B15593-21DF-4EF4-95BA-6E13FFBB7A2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:L55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6:H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,22 +612,22 @@
         <v>6</v>
       </c>
       <c r="C6" s="4">
-        <v>45327.367763343354</v>
+        <v>45.327367763343354</v>
       </c>
       <c r="D6" s="4">
         <v>0</v>
       </c>
       <c r="E6" s="4">
-        <v>7841526.9051182531</v>
+        <v>7841.5269051182531</v>
       </c>
       <c r="F6" s="4">
-        <v>367589.57792290905</v>
+        <v>367.58957792290903</v>
       </c>
       <c r="G6" s="4">
-        <v>2043401.8737914735</v>
+        <v>2078.1166788018318</v>
       </c>
       <c r="H6" s="4">
-        <v>1195911.7684717106</v>
+        <v>1195.9117684717107</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -636,22 +636,22 @@
         <v>7</v>
       </c>
       <c r="C7" s="4">
-        <v>2342649.3323795572</v>
+        <v>2342.6493323795571</v>
       </c>
       <c r="D7" s="4">
         <v>0</v>
       </c>
       <c r="E7" s="4">
-        <v>8382021.8414492086</v>
+        <v>8382.0218414492083</v>
       </c>
       <c r="F7" s="4">
-        <v>1644603.8908217947</v>
+        <v>1644.6038908217947</v>
       </c>
       <c r="G7" s="4">
-        <v>12136537.529183866</v>
+        <v>52186.420539434373</v>
       </c>
       <c r="H7" s="4">
-        <v>32401955.502437882</v>
+        <v>32401.955502437882</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -660,22 +660,22 @@
         <v>8</v>
       </c>
       <c r="C8" s="4">
-        <v>4444244.4952763794</v>
+        <v>4444.244495276379</v>
       </c>
       <c r="D8" s="4">
-        <v>298005611.48948437</v>
+        <v>298005.61148948438</v>
       </c>
       <c r="E8" s="4">
-        <v>806136393.65558147</v>
+        <v>806136.39365558152</v>
       </c>
       <c r="F8" s="4">
-        <v>24529642.594060794</v>
+        <v>24529.642594060795</v>
       </c>
       <c r="G8" s="4">
-        <v>59059852.54690282</v>
+        <v>60063.204501994282</v>
       </c>
       <c r="H8" s="4">
-        <v>2285963.0593592757</v>
+        <v>2285.9630593592756</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -684,22 +684,22 @@
         <v>9</v>
       </c>
       <c r="C9" s="4">
-        <v>3904632.2831833754</v>
+        <v>3904.6322831833754</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
       </c>
       <c r="E9" s="4">
-        <v>20856298.319628973</v>
+        <v>20856.298319628972</v>
       </c>
       <c r="F9" s="4">
-        <v>99173759.333862975</v>
+        <v>99173.759333862981</v>
       </c>
       <c r="G9" s="4">
-        <v>835405928.4123764</v>
+        <v>846146.13202739961</v>
       </c>
       <c r="H9" s="4">
-        <v>90782712.785193607</v>
+        <v>90782.712785193609</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
@@ -708,7 +708,7 @@
         <v>10</v>
       </c>
       <c r="C10" s="4">
-        <v>23945653.651074249</v>
+        <v>23945.653651074248</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -720,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>272204032.59200138</v>
+        <v>276828.4337123406</v>
       </c>
       <c r="H10" s="4">
-        <v>122182020.16093814</v>
+        <v>122182.02016093815</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -735,22 +735,22 @@
         <v>6</v>
       </c>
       <c r="C11" s="4">
-        <v>29670.616885047122</v>
+        <v>29.670616885047121</v>
       </c>
       <c r="D11" s="4">
         <v>0</v>
       </c>
       <c r="E11" s="4">
-        <v>7636040.2764753737</v>
+        <v>7636.0402764753735</v>
       </c>
       <c r="F11" s="4">
-        <v>26748.634619266562</v>
+        <v>26.748634619266561</v>
       </c>
       <c r="G11" s="4">
-        <v>1777970.3942422871</v>
+        <v>1803.3109335033512</v>
       </c>
       <c r="H11" s="4">
-        <v>659376.05322405964</v>
+        <v>659.37605322405966</v>
       </c>
       <c r="I11" s="2"/>
       <c r="L11" s="1"/>
@@ -761,22 +761,22 @@
         <v>7</v>
       </c>
       <c r="C12" s="4">
-        <v>2813216.8405159363</v>
+        <v>2813.2168405159364</v>
       </c>
       <c r="D12" s="4">
-        <v>772505.90274253627</v>
+        <v>772.50590274253625</v>
       </c>
       <c r="E12" s="4">
-        <v>13364966.899350449</v>
+        <v>13364.966899350449</v>
       </c>
       <c r="F12" s="4">
-        <v>390412.307168208</v>
+        <v>390.41230716820803</v>
       </c>
       <c r="G12" s="4">
-        <v>61258981.545449063</v>
+        <v>62648.468813893713</v>
       </c>
       <c r="H12" s="4">
-        <v>32693309.822694551</v>
+        <v>32693.309822694551</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -785,22 +785,22 @@
         <v>8</v>
       </c>
       <c r="C13" s="4">
-        <v>5157253.6269036178</v>
+        <v>5157.2536269036182</v>
       </c>
       <c r="D13" s="4">
-        <v>334726572.61932623</v>
+        <v>334726.57261932624</v>
       </c>
       <c r="E13" s="4">
-        <v>1232736867.831825</v>
+        <v>1232736.867831825</v>
       </c>
       <c r="F13" s="4">
-        <v>23308626.201659951</v>
+        <v>23308.62620165995</v>
       </c>
       <c r="G13" s="4">
-        <v>67211583.815953061</v>
+        <v>68169.517527336546</v>
       </c>
       <c r="H13" s="4">
-        <v>839312.70611965936</v>
+        <v>839.31270611965931</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -809,22 +809,22 @@
         <v>9</v>
       </c>
       <c r="C14" s="4">
-        <v>2862842.9936057087</v>
+        <v>2862.8429936057087</v>
       </c>
       <c r="D14" s="4">
         <v>0</v>
       </c>
       <c r="E14" s="4">
-        <v>13016317.082331477</v>
+        <v>13016.317082331476</v>
       </c>
       <c r="F14" s="4">
-        <v>20577391.19350734</v>
+        <v>20577.391193507341</v>
       </c>
       <c r="G14" s="4">
-        <v>896620647.24220788</v>
+        <v>908000.67435943347</v>
       </c>
       <c r="H14" s="4">
-        <v>80076733.924832329</v>
+        <v>80076.733924832326</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
@@ -833,7 +833,7 @@
         <v>10</v>
       </c>
       <c r="C15" s="4">
-        <v>23870019.991890755</v>
+        <v>23870.019991890753</v>
       </c>
       <c r="D15" s="4">
         <v>0</v>
@@ -845,10 +845,10 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
-        <v>320496493.14240265</v>
+        <v>325064.37233420985</v>
       </c>
       <c r="H15" s="4">
-        <v>116941916.63679424</v>
+        <v>116941.91663679424</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
@@ -860,22 +860,22 @@
         <v>6</v>
       </c>
       <c r="C16" s="4">
-        <v>39763.038613604047</v>
+        <v>39.763038613604046</v>
       </c>
       <c r="D16" s="4">
         <v>0</v>
       </c>
       <c r="E16" s="4">
-        <v>3487629.9584576981</v>
+        <v>3487.6299584576982</v>
       </c>
       <c r="F16" s="4">
-        <v>479294.94956247584</v>
+        <v>479.29494956247584</v>
       </c>
       <c r="G16" s="4">
-        <v>1153543.6754043738</v>
+        <v>1169.7558440750684</v>
       </c>
       <c r="H16" s="4">
-        <v>369065.53972530004</v>
+        <v>369.06553972530003</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -884,22 +884,22 @@
         <v>7</v>
       </c>
       <c r="C17" s="4">
-        <v>5524786.7105077608</v>
+        <v>5524.7867105077612</v>
       </c>
       <c r="D17" s="4">
-        <v>812762.5885705878</v>
+        <v>812.76258857058781</v>
       </c>
       <c r="E17" s="4">
-        <v>6118291.4632825619</v>
+        <v>6118.2914632825623</v>
       </c>
       <c r="F17" s="4">
-        <v>2228539.0856437441</v>
+        <v>2228.5390856437439</v>
       </c>
       <c r="G17" s="4">
-        <v>42791282.896538235</v>
+        <v>43713.774514764933</v>
       </c>
       <c r="H17" s="4">
-        <v>32751927.985182129</v>
+        <v>32751.92798518213</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -908,22 +908,22 @@
         <v>8</v>
       </c>
       <c r="C18" s="4">
-        <v>4895930.4378837803</v>
+        <v>4895.9304378837805</v>
       </c>
       <c r="D18" s="4">
-        <v>334691213.0232895</v>
+        <v>334691.21302328951</v>
       </c>
       <c r="E18" s="4">
-        <v>1098789854.6242812</v>
+        <v>1098789.8546242812</v>
       </c>
       <c r="F18" s="4">
-        <v>654386.47605724458</v>
+        <v>654.38647605724464</v>
       </c>
       <c r="G18" s="4">
-        <v>50195967.435391277</v>
+        <v>50901.382704009651</v>
       </c>
       <c r="H18" s="4">
-        <v>930348.45998028014</v>
+        <v>930.34845998028015</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -932,22 +932,22 @@
         <v>9</v>
       </c>
       <c r="C19" s="4">
-        <v>28331207.100232877</v>
+        <v>28331.207100232878</v>
       </c>
       <c r="D19" s="4">
         <v>0</v>
       </c>
       <c r="E19" s="4">
-        <v>23435771.565896288</v>
+        <v>23435.771565896288</v>
       </c>
       <c r="F19" s="4">
-        <v>67791198.362305447</v>
+        <v>67791.198362305455</v>
       </c>
       <c r="G19" s="4">
-        <v>631849332.90708315</v>
+        <v>639709.08353080787</v>
       </c>
       <c r="H19" s="4">
-        <v>92245764.450736746</v>
+        <v>92245.764450736751</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="4">
-        <v>-1796686.1801824167</v>
+        <v>-1796.6861801824166</v>
       </c>
       <c r="D20" s="4">
         <v>0</v>
@@ -968,10 +968,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>231843829.863581</v>
+        <v>235102.21648140065</v>
       </c>
       <c r="H20" s="4">
-        <v>130594048.71845806</v>
+        <v>130594.04871845806</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -983,22 +983,22 @@
         <v>6</v>
       </c>
       <c r="C21" s="4">
-        <v>18138.493926302042</v>
+        <v>18.138493926302043</v>
       </c>
       <c r="D21" s="4">
         <v>0</v>
       </c>
       <c r="E21" s="4">
-        <v>7641636.6707406901</v>
+        <v>7641.6366707406896</v>
       </c>
       <c r="F21" s="4">
-        <v>310561.59360596206</v>
+        <v>310.56159360596206</v>
       </c>
       <c r="G21" s="4">
-        <v>1235129.4846890722</v>
+        <v>1249.0488727049562</v>
       </c>
       <c r="H21" s="4">
-        <v>418007.99705472722</v>
+        <v>418.00799705472724</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1007,22 +1007,22 @@
         <v>7</v>
       </c>
       <c r="C22" s="4">
-        <v>6618916.106099043</v>
+        <v>6618.9161060990427</v>
       </c>
       <c r="D22" s="4">
-        <v>633664.48630029347</v>
+        <v>633.66448630029345</v>
       </c>
       <c r="E22" s="4">
-        <v>7128409.9417829309</v>
+        <v>7128.4099417829311</v>
       </c>
       <c r="F22" s="4">
-        <v>4347663.6515783332</v>
+        <v>4347.663651578333</v>
       </c>
       <c r="G22" s="4">
-        <v>54145931.661618099</v>
+        <v>55109.23697677561</v>
       </c>
       <c r="H22" s="4">
-        <v>18113423.22426131</v>
+        <v>18113.423224261311</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -1031,22 +1031,22 @@
         <v>8</v>
       </c>
       <c r="C23" s="4">
-        <v>4502160.5409335243</v>
+        <v>4502.1605409335243</v>
       </c>
       <c r="D23" s="4">
-        <v>466184240.10340893</v>
+        <v>466184.24010340893</v>
       </c>
       <c r="E23" s="4">
-        <v>1267847092.7956281</v>
+        <v>1267847.0927956281</v>
       </c>
       <c r="F23" s="4">
-        <v>4773.8303336995205</v>
+        <v>4.7738303336995207</v>
       </c>
       <c r="G23" s="4">
-        <v>52201254.224082127</v>
+        <v>52789.490835078155</v>
       </c>
       <c r="H23" s="4">
-        <v>5302078.083866125</v>
+        <v>5302.0780838661249</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -1055,22 +1055,22 @@
         <v>9</v>
       </c>
       <c r="C24" s="4">
-        <v>24308414.821729943</v>
+        <v>24308.414821729944</v>
       </c>
       <c r="D24" s="4">
         <v>0</v>
       </c>
       <c r="E24" s="4">
-        <v>7218841.9816865167</v>
+        <v>7218.8419816865171</v>
       </c>
       <c r="F24" s="4">
-        <v>49674952.556142434</v>
+        <v>49674.952556142438</v>
       </c>
       <c r="G24" s="4">
-        <v>705849405.55756462</v>
+        <v>713018.29052547493</v>
       </c>
       <c r="H24" s="4">
-        <v>101365598.40814474</v>
+        <v>101365.59840814474</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -1079,22 +1079,22 @@
         <v>10</v>
       </c>
       <c r="C25" s="4">
-        <v>83253.045734388725</v>
+        <v>83.253045734388721</v>
       </c>
       <c r="D25" s="4">
         <v>0</v>
       </c>
       <c r="E25" s="4">
-        <v>8757188.1740037836</v>
+        <v>8757.1881740037843</v>
       </c>
       <c r="F25" s="4">
         <v>0</v>
       </c>
       <c r="G25" s="4">
-        <v>257327049.36847311</v>
+        <v>260227.01661202405</v>
       </c>
       <c r="H25" s="4">
-        <v>105479239.14290832</v>
+        <v>105479.23914290832</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -1106,22 +1106,22 @@
         <v>6</v>
       </c>
       <c r="C26" s="4">
-        <v>5378.5612490698804</v>
+        <v>5.3785612490698806</v>
       </c>
       <c r="D26" s="4">
         <v>0</v>
       </c>
       <c r="E26" s="4">
-        <v>11441855.469374521</v>
+        <v>11441.855469374521</v>
       </c>
       <c r="F26" s="4">
-        <v>404221.07402185764</v>
+        <v>404.22107402185765</v>
       </c>
       <c r="G26" s="4">
-        <v>2868206.0207515825</v>
+        <v>2916.8914583646119</v>
       </c>
       <c r="H26" s="4">
-        <v>405099.37315314729</v>
+        <v>405.09937315314727</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -1130,22 +1130,22 @@
         <v>7</v>
       </c>
       <c r="C27" s="4">
-        <v>2125771.1135948822</v>
+        <v>2125.7711135948821</v>
       </c>
       <c r="D27" s="4">
-        <v>107896.01847671057</v>
+        <v>107.89601847671057</v>
       </c>
       <c r="E27" s="4">
-        <v>1184595.025942361</v>
+        <v>1184.595025942361</v>
       </c>
       <c r="F27" s="4">
-        <v>2787810.1337552834</v>
+        <v>2787.8101337552835</v>
       </c>
       <c r="G27" s="4">
-        <v>45562127.491439112</v>
+        <v>46793.473151612277</v>
       </c>
       <c r="H27" s="4">
-        <v>49912757.158891894</v>
+        <v>49912.757158891895</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -1154,22 +1154,22 @@
         <v>8</v>
       </c>
       <c r="C28" s="4">
-        <v>4717453.9273156142</v>
+        <v>4717.4539273156142</v>
       </c>
       <c r="D28" s="4">
-        <v>376563864.0469625</v>
+        <v>376563.86404696252</v>
       </c>
       <c r="E28" s="4">
-        <v>1050778184.3143939</v>
+        <v>1050778.1843143939</v>
       </c>
       <c r="F28" s="4">
-        <v>81.223238388959999</v>
+        <v>8.1223238388959992E-2</v>
       </c>
       <c r="G28" s="4">
-        <v>50212154.093444489</v>
+        <v>51064.409729284693</v>
       </c>
       <c r="H28" s="4">
-        <v>5115759.6075248532</v>
+        <v>5115.759607524853</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
@@ -1178,22 +1178,22 @@
         <v>9</v>
       </c>
       <c r="C29" s="4">
-        <v>25830425.745031904</v>
+        <v>25830.425745031906</v>
       </c>
       <c r="D29" s="4">
         <v>0</v>
       </c>
       <c r="E29" s="4">
-        <v>5998843.9037915263</v>
+        <v>5998.8439037915259</v>
       </c>
       <c r="F29" s="4">
-        <v>32776174.62256569</v>
+        <v>32776.17462256569</v>
       </c>
       <c r="G29" s="4">
-        <v>756805505.34074056</v>
+        <v>768912.27965256094</v>
       </c>
       <c r="H29" s="4">
-        <v>109124860.16264054</v>
+        <v>109124.86016264054</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
@@ -1202,22 +1202,22 @@
         <v>10</v>
       </c>
       <c r="C30" s="4">
-        <v>6611790.1655343007</v>
+        <v>6611.7901655343012</v>
       </c>
       <c r="D30" s="4">
         <v>0</v>
       </c>
       <c r="E30" s="4">
-        <v>8004820.879146832</v>
+        <v>8004.8208791468323</v>
       </c>
       <c r="F30" s="4">
         <v>0</v>
       </c>
       <c r="G30" s="4">
-        <v>258968002.89138633</v>
+        <v>263363.77169506374</v>
       </c>
       <c r="H30" s="4">
-        <v>102148348.69214721</v>
+        <v>102148.34869214721</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -1229,22 +1229,22 @@
         <v>6</v>
       </c>
       <c r="C31" s="4">
-        <v>7143.356305429561</v>
+        <v>7.1433563054295606</v>
       </c>
       <c r="D31" s="4">
         <v>0</v>
       </c>
       <c r="E31" s="4">
-        <v>3569199.3298371006</v>
+        <v>3569.1993298371008</v>
       </c>
       <c r="F31" s="4">
-        <v>222005.81549021986</v>
+        <v>222.00581549021985</v>
       </c>
       <c r="G31" s="4">
-        <v>3463650.5294866096</v>
+        <v>3529.7996107712593</v>
       </c>
       <c r="H31" s="4">
-        <v>340678.59297120007</v>
+        <v>340.67859297120009</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
@@ -1253,22 +1253,22 @@
         <v>7</v>
       </c>
       <c r="C32" s="4">
-        <v>1569068.2546402896</v>
+        <v>1569.0682546402895</v>
       </c>
       <c r="D32" s="4">
         <v>0</v>
       </c>
       <c r="E32" s="4">
-        <v>381064.15169546724</v>
+        <v>381.06415169546722</v>
       </c>
       <c r="F32" s="4">
         <v>0</v>
       </c>
       <c r="G32" s="4">
-        <v>31486148.595019054</v>
+        <v>32437.410849458109</v>
       </c>
       <c r="H32" s="4">
-        <v>17717658.64749144</v>
+        <v>17717.65864749144</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -1277,22 +1277,22 @@
         <v>8</v>
       </c>
       <c r="C33" s="4">
-        <v>4272516.5842247223</v>
+        <v>4272.5165842247225</v>
       </c>
       <c r="D33" s="4">
-        <v>171699785.98405433</v>
+        <v>171699.78598405432</v>
       </c>
       <c r="E33" s="4">
-        <v>508239382.70902908</v>
+        <v>508239.38270902907</v>
       </c>
       <c r="F33" s="4">
-        <v>750348.13655060495</v>
+        <v>750.34813655060498</v>
       </c>
       <c r="G33" s="4">
-        <v>45291959.804384843</v>
+        <v>46156.910894834546</v>
       </c>
       <c r="H33" s="4">
-        <v>5067486.2607652806</v>
+        <v>5067.4862607652803</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -1301,22 +1301,22 @@
         <v>9</v>
       </c>
       <c r="C34" s="4">
-        <v>1786059.6757394352</v>
+        <v>1786.0596757394353</v>
       </c>
       <c r="D34" s="4">
         <v>0</v>
       </c>
       <c r="E34" s="4">
-        <v>1461600.0892970208</v>
+        <v>1461.6000892970208</v>
       </c>
       <c r="F34" s="4">
-        <v>85398.435119910238</v>
+        <v>85.398435119910232</v>
       </c>
       <c r="G34" s="4">
-        <v>656079711.61663151</v>
+        <v>668002.15464937512</v>
       </c>
       <c r="H34" s="4">
-        <v>100948888.82015789</v>
+        <v>100948.88882015788</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -1325,22 +1325,22 @@
         <v>10</v>
       </c>
       <c r="C35" s="4">
-        <v>21176144.514437694</v>
+        <v>21176.144514437696</v>
       </c>
       <c r="D35" s="4">
         <v>0</v>
       </c>
       <c r="E35" s="4">
-        <v>1130754.3976794719</v>
+        <v>1130.7543976794718</v>
       </c>
       <c r="F35" s="4">
-        <v>157.03699385088001</v>
+        <v>0.15703699385088002</v>
       </c>
       <c r="G35" s="4">
-        <v>218227555.32131472</v>
+        <v>222395.28303304772</v>
       </c>
       <c r="H35" s="4">
-        <v>92872218.734388739</v>
+        <v>92872.218734388734</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,22 +1352,22 @@
         <v>6</v>
       </c>
       <c r="C36" s="4">
-        <v>7564.2367053837615</v>
+        <v>7.5642367053837614</v>
       </c>
       <c r="D36" s="4">
         <v>0</v>
       </c>
       <c r="E36" s="4">
-        <v>4253788.4538872931</v>
+        <v>4253.7884538872931</v>
       </c>
       <c r="F36" s="4">
-        <v>193883.10717475813</v>
+        <v>193.88310717475812</v>
       </c>
       <c r="G36" s="4">
-        <v>3312252.791274251</v>
+        <v>3380.1778676563481</v>
       </c>
       <c r="H36" s="4">
-        <v>318921.23697984003</v>
+        <v>318.92123697984005</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -1376,22 +1376,22 @@
         <v>7</v>
       </c>
       <c r="C37" s="4">
-        <v>1192058.1054785568</v>
+        <v>1192.0581054785569</v>
       </c>
       <c r="D37" s="4">
         <v>0</v>
       </c>
       <c r="E37" s="4">
-        <v>726956.98560228746</v>
+        <v>726.95698560228743</v>
       </c>
       <c r="F37" s="4">
         <v>0</v>
       </c>
       <c r="G37" s="4">
-        <v>29186646.045279562</v>
+        <v>29851.454495891328</v>
       </c>
       <c r="H37" s="4">
-        <v>70159699.500865921</v>
+        <v>70159.699500865914</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -1400,22 +1400,22 @@
         <v>8</v>
       </c>
       <c r="C38" s="4">
-        <v>3468980.4325025077</v>
+        <v>3468.9804325025075</v>
       </c>
       <c r="D38" s="4">
-        <v>176325680.76670891</v>
+        <v>176325.68076670892</v>
       </c>
       <c r="E38" s="4">
-        <v>537317867.19307554</v>
+        <v>537317.8671930756</v>
       </c>
       <c r="F38" s="4">
-        <v>1709906.374355458</v>
+        <v>1709.906374355458</v>
       </c>
       <c r="G38" s="4">
-        <v>38748157.191253759</v>
+        <v>39542.726604176445</v>
       </c>
       <c r="H38" s="4">
-        <v>5601293.0968896002</v>
+        <v>5601.2930968895998</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -1424,22 +1424,22 @@
         <v>9</v>
       </c>
       <c r="C39" s="4">
-        <v>1663380.2957114058</v>
+        <v>1663.3802957114058</v>
       </c>
       <c r="D39" s="4">
-        <v>9.7572362469120026</v>
+        <v>9.757236246912002E-3</v>
       </c>
       <c r="E39" s="4">
-        <v>1043222.1441860988</v>
+        <v>1043.2221441860988</v>
       </c>
       <c r="F39" s="4">
-        <v>560571.39045103686</v>
+        <v>560.5713904510369</v>
       </c>
       <c r="G39" s="4">
-        <v>642587881.36791265</v>
+        <v>655126.46368104091</v>
       </c>
       <c r="H39" s="4">
-        <v>96065573.908455417</v>
+        <v>96065.573908455422</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -1448,22 +1448,22 @@
         <v>10</v>
       </c>
       <c r="C40" s="4">
-        <v>20880747.428762253</v>
+        <v>20880.747428762254</v>
       </c>
       <c r="D40" s="4">
         <v>0</v>
       </c>
       <c r="E40" s="4">
-        <v>1174377.3991435694</v>
+        <v>1174.3773991435694</v>
       </c>
       <c r="F40" s="4">
         <v>0</v>
       </c>
       <c r="G40" s="4">
-        <v>208177152.07609141</v>
+        <v>212446.28545655898</v>
       </c>
       <c r="H40" s="4">
-        <v>101057264.56102464</v>
+        <v>101057.26456102464</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
@@ -1475,22 +1475,22 @@
         <v>6</v>
       </c>
       <c r="C41" s="4">
-        <v>5561.4265262913596</v>
+        <v>5.5614265262913598</v>
       </c>
       <c r="D41" s="4">
         <v>0</v>
       </c>
       <c r="E41" s="4">
-        <v>4375140.6371349888</v>
+        <v>4375.1406371349885</v>
       </c>
       <c r="F41" s="4">
         <v>0</v>
       </c>
       <c r="G41" s="4">
-        <v>2346199.1839278159</v>
+        <v>2389.3519628603576</v>
       </c>
       <c r="H41" s="4">
-        <v>216589.41489240003</v>
+        <v>216.58941489240004</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -1499,22 +1499,22 @@
         <v>7</v>
       </c>
       <c r="C42" s="4">
-        <v>1546047.5480745188</v>
+        <v>1546.0475480745188</v>
       </c>
       <c r="D42" s="4">
         <v>0</v>
       </c>
       <c r="E42" s="4">
-        <v>4961958.5888764476</v>
+        <v>4961.9585888764477</v>
       </c>
       <c r="F42" s="4">
-        <v>1474705.8630114712</v>
+        <v>1474.7058630114711</v>
       </c>
       <c r="G42" s="4">
-        <v>35191633.721611135</v>
+        <v>35881.074081673389</v>
       </c>
       <c r="H42" s="4">
-        <v>60773703.149016008</v>
+        <v>60773.703149016008</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
@@ -1523,22 +1523,22 @@
         <v>8</v>
       </c>
       <c r="C43" s="4">
-        <v>3965593.1808374315</v>
+        <v>3965.5931808374316</v>
       </c>
       <c r="D43" s="4">
-        <v>173956979.90239388</v>
+        <v>173956.97990239388</v>
       </c>
       <c r="E43" s="4">
-        <v>567522417.3328439</v>
+        <v>567522.41733284388</v>
       </c>
       <c r="F43" s="4">
-        <v>1573930.8129789464</v>
+        <v>1573.9308129789463</v>
       </c>
       <c r="G43" s="4">
-        <v>46475692.505467676</v>
+        <v>47330.502829400917</v>
       </c>
       <c r="H43" s="4">
-        <v>5914392.1413192004</v>
+        <v>5914.3921413192002</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
@@ -1547,22 +1547,22 @@
         <v>9</v>
       </c>
       <c r="C44" s="4">
-        <v>1761155.1665559378</v>
+        <v>20084.044052636535</v>
       </c>
       <c r="D44" s="4">
         <v>0</v>
       </c>
       <c r="E44" s="4">
-        <v>550067.56812831049</v>
+        <v>161.66437872903109</v>
       </c>
       <c r="F44" s="4">
-        <v>418648.31225444161</v>
+        <v>0</v>
       </c>
       <c r="G44" s="4">
-        <v>818085157.77881312</v>
+        <v>267927.78332392115</v>
       </c>
       <c r="H44" s="4">
-        <v>94941219.460705206</v>
+        <v>94754.652340946399</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
@@ -1571,22 +1571,22 @@
         <v>10</v>
       </c>
       <c r="C45" s="4">
-        <v>20084044.052636534</v>
+        <v>1761.1551665559377</v>
       </c>
       <c r="D45" s="4">
         <v>0</v>
       </c>
       <c r="E45" s="4">
-        <v>161664.37872903107</v>
+        <v>550.06756812831054</v>
       </c>
       <c r="F45" s="4">
-        <v>0</v>
+        <v>418.64831225444163</v>
       </c>
       <c r="G45" s="4">
-        <v>263088886.17382437</v>
+        <v>832464.57209277945</v>
       </c>
       <c r="H45" s="4">
-        <v>94754652.340946406</v>
+        <v>94941.219460705208</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
@@ -1598,22 +1598,22 @@
         <v>6</v>
       </c>
       <c r="C46" s="4">
-        <v>2351.1249928476004</v>
+        <v>2.3511249928476006</v>
       </c>
       <c r="D46" s="4">
         <v>0</v>
       </c>
       <c r="E46" s="4">
-        <v>3031070.3571329182</v>
+        <v>3031.0703571329182</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
       <c r="G46" s="4">
-        <v>6767254.5170968007</v>
+        <v>6893.7595690166072</v>
       </c>
       <c r="H46" s="4">
-        <v>222900.62651999999</v>
+        <v>222.90062652</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -1622,22 +1622,22 @@
         <v>7</v>
       </c>
       <c r="C47" s="4">
-        <v>1938421.2831463034</v>
+        <v>1938.4212831463035</v>
       </c>
       <c r="D47" s="4">
         <v>0</v>
       </c>
       <c r="E47" s="4">
-        <v>847677.97309557931</v>
+        <v>847.67797309557932</v>
       </c>
       <c r="F47" s="4">
-        <v>186688.91126039473</v>
+        <v>186.68891126039472</v>
       </c>
       <c r="G47" s="4">
-        <v>34251665.102752164</v>
+        <v>35092.444140035172</v>
       </c>
       <c r="H47" s="4">
-        <v>68664109.344435006</v>
+        <v>68664.109344435012</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
@@ -1646,22 +1646,22 @@
         <v>8</v>
       </c>
       <c r="C48" s="4">
-        <v>3499971.7430563755</v>
+        <v>3499.9717430563755</v>
       </c>
       <c r="D48" s="4">
-        <v>187282218.87051314</v>
+        <v>187282.21887051314</v>
       </c>
       <c r="E48" s="4">
-        <v>602188902.77116871</v>
+        <v>602188.90277116874</v>
       </c>
       <c r="F48" s="4">
-        <v>1098845.6112240625</v>
+        <v>1098.8456112240624</v>
       </c>
       <c r="G48" s="4">
-        <v>49128904.130101442</v>
+        <v>50047.305315107864</v>
       </c>
       <c r="H48" s="4">
-        <v>3718582.567425</v>
+        <v>3718.582567425</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
@@ -1670,22 +1670,22 @@
         <v>9</v>
       </c>
       <c r="C49" s="4">
-        <v>2781128.3382987385</v>
+        <v>2781.1283382987385</v>
       </c>
       <c r="D49" s="4">
         <v>0</v>
       </c>
       <c r="E49" s="4">
-        <v>2762148.624953629</v>
+        <v>2762.1486249536288</v>
       </c>
       <c r="F49" s="4">
-        <v>37149.542218170725</v>
+        <v>37.149542218170723</v>
       </c>
       <c r="G49" s="4">
-        <v>763224605.78454638</v>
+        <v>776778.25287846569</v>
       </c>
       <c r="H49" s="4">
-        <v>94516295.470245004</v>
+        <v>94516.295470245008</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
@@ -1694,22 +1694,22 @@
         <v>10</v>
       </c>
       <c r="C50" s="4">
-        <v>17596481.244617574</v>
+        <v>17596.481244617575</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
       </c>
       <c r="E50" s="4">
-        <v>56693.089155923029</v>
+        <v>56.693089155923026</v>
       </c>
       <c r="F50" s="4">
         <v>0</v>
       </c>
       <c r="G50" s="4">
-        <v>248738981.57565495</v>
+        <v>253388.83443684271</v>
       </c>
       <c r="H50" s="4">
-        <v>82912603.239675</v>
+        <v>82912.603239674994</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
@@ -1721,22 +1721,22 @@
         <v>6</v>
       </c>
       <c r="C51" s="4">
-        <v>2307.5856411282002</v>
+        <v>2.3075856411282003</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
       <c r="E51" s="4">
-        <v>4065497.7203092691</v>
+        <v>4065.497720309269</v>
       </c>
       <c r="F51" s="4">
-        <v>157.03699385087998</v>
+        <v>0.15703699385087999</v>
       </c>
       <c r="G51" s="4">
-        <v>4221857.7104334123</v>
+        <v>4224.7426067214083</v>
       </c>
       <c r="H51" s="4">
-        <v>284412.62633850001</v>
+        <v>284.41262633849999</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -1745,22 +1745,22 @@
         <v>7</v>
       </c>
       <c r="C52" s="4">
-        <v>1132139.2496423186</v>
+        <v>1132.1392496423186</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
       </c>
       <c r="E52" s="4">
-        <v>862533.64820476412</v>
+        <v>862.53364820476418</v>
       </c>
       <c r="F52" s="4">
-        <v>908440.83074534824</v>
+        <v>908.44083074534819</v>
       </c>
       <c r="G52" s="4">
-        <v>42043612.480553262</v>
+        <v>42072.319737272745</v>
       </c>
       <c r="H52" s="4">
-        <v>71801007.007652998</v>
+        <v>71801.007007652996</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
@@ -1769,22 +1769,22 @@
         <v>8</v>
       </c>
       <c r="C53" s="4">
-        <v>3009149.7285001324</v>
+        <v>3009.1497285001324</v>
       </c>
       <c r="D53" s="4">
-        <v>174126527.03639153</v>
+        <v>174126.52703639152</v>
       </c>
       <c r="E53" s="4">
-        <v>592435102.44499004</v>
+        <v>592435.10244499007</v>
       </c>
       <c r="F53" s="4">
-        <v>2492416.2932036268</v>
+        <v>2492.4162932036265</v>
       </c>
       <c r="G53" s="4">
-        <v>91508137.473465338</v>
+        <v>91570.66717110679</v>
       </c>
       <c r="H53" s="4">
-        <v>3514542.7631489998</v>
+        <v>3514.5427631489997</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -1793,22 +1793,22 @@
         <v>9</v>
       </c>
       <c r="C54" s="4">
-        <v>1774057.3277821203</v>
+        <v>1774.0573277821204</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
       <c r="E54" s="4">
-        <v>444181.05923404981</v>
+        <v>444.18105923404983</v>
       </c>
       <c r="F54" s="4">
-        <v>49419.20100728736</v>
+        <v>49.419201007287363</v>
       </c>
       <c r="G54" s="4">
-        <v>910083246.36825383</v>
+        <v>909780.71563789621</v>
       </c>
       <c r="H54" s="4">
-        <v>99213926.174154043</v>
+        <v>99213.926174154039</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
@@ -1817,22 +1817,22 @@
         <v>10</v>
       </c>
       <c r="C55" s="4">
-        <v>15965317.166555077</v>
+        <v>15965.317166555076</v>
       </c>
       <c r="D55" s="4">
         <v>0</v>
       </c>
       <c r="E55" s="4">
-        <v>101592.89259734603</v>
+        <v>101.59289259734602</v>
       </c>
       <c r="F55" s="4">
         <v>0</v>
       </c>
       <c r="G55" s="4">
-        <v>304990829.08998048</v>
+        <v>305199.23661364947</v>
       </c>
       <c r="H55" s="4">
-        <v>92607065.873090997</v>
+        <v>92607.065873090993</v>
       </c>
     </row>
   </sheetData>
